--- a/gr_optimization/Input_Output/BuyflowValidation/Merchandising Input/MeaningfulBeauty/mb7deluxe20offb15.xlsx
+++ b/gr_optimization/Input_Output/BuyflowValidation/Merchandising Input/MeaningfulBeauty/mb7deluxe20offb15.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23524"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23621"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="14" documentId="8_{F37BB686-1AC6-47FE-A74D-65D853D3D5CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{D2A5A7EB-2737-4D0B-ADC4-7340F8C7168C}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="8_{F37BB686-1AC6-47FE-A74D-65D853D3D5CE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{EC40F05B-2579-41DC-AD51-C8991C9C0449}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -401,7 +401,7 @@
     <t>Pre-Purchase Entry Shipping</t>
   </si>
   <si>
-    <t>Pre-Purchase Entry Renewal Plan</t>
+    <t>Pre-Purchase Entry Renewal Plan</t>
   </si>
   <si>
     <t>RMTA47X</t>
@@ -582,7 +582,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -607,6 +607,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="14">
     <border>
@@ -794,7 +800,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -892,6 +898,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1222,8 +1231,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="A75" sqref="A75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -1295,7 +1304,7 @@
       <c r="G2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="34" t="s">
         <v>16</v>
       </c>
       <c r="I2" s="9">
@@ -1465,11 +1474,11 @@
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.75">
-      <c r="A18" s="34" t="s">
+      <c r="A18" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="35"/>
-      <c r="C18" s="35"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="36"/>
     </row>
     <row r="19" spans="1:3" ht="15.75">
       <c r="A19" s="13" t="s">
@@ -1907,11 +1916,11 @@
       <c r="C61" s="14"/>
     </row>
     <row r="62" spans="1:3" ht="15.75">
-      <c r="A62" s="36" t="s">
+      <c r="A62" s="37" t="s">
         <v>103</v>
       </c>
-      <c r="B62" s="37"/>
-      <c r="C62" s="37"/>
+      <c r="B62" s="38"/>
+      <c r="C62" s="38"/>
     </row>
     <row r="63" spans="1:3" ht="15.75">
       <c r="A63" s="18" t="s">

--- a/gr_optimization/Input_Output/BuyflowValidation/Merchandising Input/MeaningfulBeauty/mb7deluxe20offb15.xlsx
+++ b/gr_optimization/Input_Output/BuyflowValidation/Merchandising Input/MeaningfulBeauty/mb7deluxe20offb15.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23621"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="16" documentId="8_{F37BB686-1AC6-47FE-A74D-65D853D3D5CE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{EC40F05B-2579-41DC-AD51-C8991C9C0449}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://guthyrenker.sharepoint.com/sites/ecommerce/Shared Documents/Merchandising Data Repo/MeaningfulBeauty/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="16" documentId="8_{F37BB686-1AC6-47FE-A74D-65D853D3D5CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{EC40F05B-2579-41DC-AD51-C8991C9C0449}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10350" yWindow="-16395" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Active Campaign" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -517,7 +522,7 @@
   <numFmts count="1">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1231,11 +1236,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="A75" sqref="A75"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="70.85546875" style="5" customWidth="1"/>
     <col min="2" max="2" width="68.85546875" style="5" customWidth="1"/>
@@ -1250,7 +1255,7 @@
     <col min="11" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1282,7 +1287,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="16.5">
+    <row r="2" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>10</v>
       </c>
@@ -1314,7 +1319,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="25"/>
       <c r="C3" s="27"/>
@@ -1326,7 +1331,7 @@
       <c r="I3" s="9"/>
       <c r="J3" s="10"/>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
       <c r="B4" s="25"/>
       <c r="C4" s="28"/>
@@ -1338,7 +1343,7 @@
       <c r="I4" s="9"/>
       <c r="J4" s="10"/>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
       <c r="B5" s="25"/>
       <c r="C5" s="28"/>
@@ -1350,7 +1355,7 @@
       <c r="I5" s="9"/>
       <c r="J5" s="10"/>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
       <c r="B6" s="25"/>
       <c r="C6" s="28"/>
@@ -1362,7 +1367,7 @@
       <c r="I6" s="9"/>
       <c r="J6" s="10"/>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
       <c r="B7" s="25"/>
       <c r="C7" s="28"/>
@@ -1374,7 +1379,7 @@
       <c r="I7" s="9"/>
       <c r="J7" s="10"/>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
       <c r="B8" s="25"/>
       <c r="C8" s="28"/>
@@ -1386,7 +1391,7 @@
       <c r="I8" s="9"/>
       <c r="J8" s="10"/>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
       <c r="B9" s="25"/>
       <c r="C9" s="28"/>
@@ -1398,7 +1403,7 @@
       <c r="I9" s="9"/>
       <c r="J9" s="10"/>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
       <c r="B10" s="25"/>
       <c r="C10" s="28"/>
@@ -1410,7 +1415,7 @@
       <c r="I10" s="9"/>
       <c r="J10" s="10"/>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="29"/>
       <c r="B11" s="30"/>
       <c r="C11" s="28"/>
@@ -1422,7 +1427,7 @@
       <c r="I11" s="9"/>
       <c r="J11" s="10"/>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="31"/>
       <c r="B12" s="32"/>
       <c r="C12" s="32"/>
@@ -1433,14 +1438,14 @@
       <c r="I12" s="33"/>
       <c r="J12" s="33"/>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="11"/>
       <c r="B14" s="11"/>
       <c r="C14" s="11"/>
       <c r="D14" s="11"/>
       <c r="E14" s="11"/>
     </row>
-    <row r="15" spans="1:10" ht="15.75">
+    <row r="15" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
         <v>17</v>
       </c>
@@ -1451,7 +1456,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15.75">
+    <row r="16" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
         <v>20</v>
       </c>
@@ -1462,7 +1467,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15.75">
+    <row r="17" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
         <v>23</v>
       </c>
@@ -1473,14 +1478,14 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15.75">
+    <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="35" t="s">
         <v>25</v>
       </c>
       <c r="B18" s="36"/>
       <c r="C18" s="36"/>
     </row>
-    <row r="19" spans="1:3" ht="15.75">
+    <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
         <v>26</v>
       </c>
@@ -1491,7 +1496,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15.75">
+    <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
         <v>27</v>
       </c>
@@ -1502,14 +1507,14 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15.75">
+    <row r="21" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
         <v>30</v>
       </c>
       <c r="B21" s="14"/>
       <c r="C21" s="14"/>
     </row>
-    <row r="22" spans="1:3" ht="15.75">
+    <row r="22" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
         <v>31</v>
       </c>
@@ -1520,7 +1525,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15.75">
+    <row r="23" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
         <v>34</v>
       </c>
@@ -1531,7 +1536,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="15.75">
+    <row r="24" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
         <v>37</v>
       </c>
@@ -1542,7 +1547,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="15.75">
+    <row r="25" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
         <v>39</v>
       </c>
@@ -1553,7 +1558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="15.75">
+    <row r="26" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
         <v>40</v>
       </c>
@@ -1562,7 +1567,7 @@
       </c>
       <c r="C26" s="14"/>
     </row>
-    <row r="27" spans="1:3" ht="15.75">
+    <row r="27" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="s">
         <v>41</v>
       </c>
@@ -1573,7 +1578,7 @@
         <v>49.95</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="15.75">
+    <row r="28" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="13" t="s">
         <v>42</v>
       </c>
@@ -1584,7 +1589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="15.75">
+    <row r="29" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="13" t="s">
         <v>43</v>
       </c>
@@ -1595,7 +1600,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="126">
+    <row r="30" spans="1:3" ht="126" x14ac:dyDescent="0.25">
       <c r="A30" s="13" t="s">
         <v>46</v>
       </c>
@@ -1606,7 +1611,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="110.25">
+    <row r="31" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A31" s="13" t="s">
         <v>49</v>
       </c>
@@ -1617,7 +1622,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="15.75">
+    <row r="32" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="13" t="s">
         <v>52</v>
       </c>
@@ -1628,7 +1633,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="15.75">
+    <row r="33" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="13" t="s">
         <v>54</v>
       </c>
@@ -1637,7 +1642,7 @@
       </c>
       <c r="C33" s="14"/>
     </row>
-    <row r="34" spans="1:3" ht="15.75">
+    <row r="34" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="13" t="s">
         <v>56</v>
       </c>
@@ -1648,28 +1653,28 @@
         <v>57</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="15.75">
+    <row r="35" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="13" t="s">
         <v>58</v>
       </c>
       <c r="B35" s="14"/>
       <c r="C35" s="14"/>
     </row>
-    <row r="36" spans="1:3" ht="15.75">
+    <row r="36" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="s">
         <v>59</v>
       </c>
       <c r="B36" s="14"/>
       <c r="C36" s="14"/>
     </row>
-    <row r="37" spans="1:3" ht="15.75">
+    <row r="37" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="13" t="s">
         <v>60</v>
       </c>
       <c r="B37" s="14"/>
       <c r="C37" s="14"/>
     </row>
-    <row r="38" spans="1:3" ht="15.75">
+    <row r="38" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="13" t="s">
         <v>61</v>
       </c>
@@ -1680,7 +1685,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="15.75">
+    <row r="39" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="13" t="s">
         <v>64</v>
       </c>
@@ -1691,7 +1696,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="15.75">
+    <row r="40" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="13" t="s">
         <v>67</v>
       </c>
@@ -1702,7 +1707,7 @@
         <v>49.95</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="15.75" customHeight="1">
+    <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="13" t="s">
         <v>68</v>
       </c>
@@ -1713,7 +1718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="15.75">
+    <row r="42" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="13" t="s">
         <v>69</v>
       </c>
@@ -1724,7 +1729,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="15.75">
+    <row r="43" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="13" t="s">
         <v>70</v>
       </c>
@@ -1735,7 +1740,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="126">
+    <row r="44" spans="1:3" ht="126" x14ac:dyDescent="0.25">
       <c r="A44" s="13" t="s">
         <v>73</v>
       </c>
@@ -1746,7 +1751,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="110.25">
+    <row r="45" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A45" s="13" t="s">
         <v>76</v>
       </c>
@@ -1757,7 +1762,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="63">
+    <row r="46" spans="1:3" ht="63" x14ac:dyDescent="0.25">
       <c r="A46" s="13" t="s">
         <v>79</v>
       </c>
@@ -1768,7 +1773,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="15.75">
+    <row r="47" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="13" t="s">
         <v>82</v>
       </c>
@@ -1779,21 +1784,21 @@
         <v>53</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="15.75">
+    <row r="48" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="13" t="s">
         <v>83</v>
       </c>
       <c r="B48" s="17"/>
       <c r="C48" s="17"/>
     </row>
-    <row r="49" spans="1:3" ht="15.75">
+    <row r="49" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="13" t="s">
         <v>84</v>
       </c>
       <c r="B49" s="14"/>
       <c r="C49" s="14"/>
     </row>
-    <row r="50" spans="1:3" ht="15.75">
+    <row r="50" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="13" t="s">
         <v>85</v>
       </c>
@@ -1802,7 +1807,7 @@
       </c>
       <c r="C50" s="17"/>
     </row>
-    <row r="51" spans="1:3" ht="15.75">
+    <row r="51" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="13" t="s">
         <v>86</v>
       </c>
@@ -1813,14 +1818,14 @@
         <v>57</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="15.75">
+    <row r="52" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="13" t="s">
         <v>87</v>
       </c>
       <c r="B52" s="14"/>
       <c r="C52" s="14"/>
     </row>
-    <row r="53" spans="1:3" ht="15.75" customHeight="1">
+    <row r="53" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="13" t="s">
         <v>88</v>
       </c>
@@ -1831,7 +1836,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="15.75">
+    <row r="54" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="13" t="s">
         <v>90</v>
       </c>
@@ -1842,7 +1847,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="15.75">
+    <row r="55" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="13" t="s">
         <v>92</v>
       </c>
@@ -1853,7 +1858,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="15.75">
+    <row r="56" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="13" t="s">
         <v>95</v>
       </c>
@@ -1864,7 +1869,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="15.75">
+    <row r="57" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="13" t="s">
         <v>96</v>
       </c>
@@ -1875,7 +1880,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="15.75">
+    <row r="58" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="13" t="s">
         <v>98</v>
       </c>
@@ -1886,7 +1891,7 @@
         <v>49.95</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="15.75">
+    <row r="59" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="13" t="s">
         <v>99</v>
       </c>
@@ -1897,7 +1902,7 @@
         <v>3.99</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="15.75">
+    <row r="60" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" s="13" t="s">
         <v>100</v>
       </c>
@@ -1908,21 +1913,21 @@
         <v>101</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="15.75">
+    <row r="61" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="13" t="s">
         <v>102</v>
       </c>
       <c r="B61" s="14"/>
       <c r="C61" s="14"/>
     </row>
-    <row r="62" spans="1:3" ht="15.75">
+    <row r="62" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" s="37" t="s">
         <v>103</v>
       </c>
       <c r="B62" s="38"/>
       <c r="C62" s="38"/>
     </row>
-    <row r="63" spans="1:3" ht="15.75">
+    <row r="63" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" s="18" t="s">
         <v>104</v>
       </c>
@@ -1933,7 +1938,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="22.5" customHeight="1">
+    <row r="64" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="18" t="s">
         <v>106</v>
       </c>
@@ -1944,14 +1949,14 @@
         <v>108</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="15.75">
+    <row r="65" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A65" s="18" t="s">
         <v>109</v>
       </c>
       <c r="B65" s="19"/>
       <c r="C65" s="24"/>
     </row>
-    <row r="66" spans="1:3" ht="15.75">
+    <row r="66" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" s="18" t="s">
         <v>110</v>
       </c>
@@ -1962,7 +1967,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="15.75">
+    <row r="67" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" s="18" t="s">
         <v>113</v>
       </c>
@@ -1973,7 +1978,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="15.75" customHeight="1">
+    <row r="68" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="18" t="s">
         <v>116</v>
       </c>
@@ -1984,7 +1989,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="15.75">
+    <row r="69" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A69" s="18" t="s">
         <v>117</v>
       </c>
@@ -1995,7 +2000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="15.75">
+    <row r="70" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A70" s="18" t="s">
         <v>118</v>
       </c>
@@ -2004,7 +2009,7 @@
       </c>
       <c r="C70" s="19"/>
     </row>
-    <row r="71" spans="1:3" ht="15.75">
+    <row r="71" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A71" s="18" t="s">
         <v>119</v>
       </c>
@@ -2015,7 +2020,7 @@
         <v>64.95</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="15.75" customHeight="1">
+    <row r="72" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="18" t="s">
         <v>120</v>
       </c>
@@ -2026,7 +2031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="15.75">
+    <row r="73" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A73" s="18" t="s">
         <v>121</v>
       </c>
@@ -2037,7 +2042,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="15.75">
+    <row r="74" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A74" s="18" t="s">
         <v>124</v>
       </c>
@@ -2048,21 +2053,21 @@
         <v>53</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="15.75">
+    <row r="75" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A75" s="18" t="s">
         <v>125</v>
       </c>
       <c r="B75" s="19"/>
       <c r="C75" s="19"/>
     </row>
-    <row r="76" spans="1:3" ht="15.75">
+    <row r="76" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76" s="18" t="s">
         <v>126</v>
       </c>
       <c r="B76" s="19"/>
       <c r="C76" s="19"/>
     </row>
-    <row r="77" spans="1:3" ht="15.75">
+    <row r="77" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A77" s="18" t="s">
         <v>127</v>
       </c>
@@ -2071,7 +2076,7 @@
       </c>
       <c r="C77" s="19"/>
     </row>
-    <row r="78" spans="1:3" ht="15.75">
+    <row r="78" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A78" s="18" t="s">
         <v>129</v>
       </c>
@@ -2082,14 +2087,14 @@
         <v>57</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="15.75">
+    <row r="79" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A79" s="18" t="s">
         <v>130</v>
       </c>
       <c r="B79" s="19"/>
       <c r="C79" s="19"/>
     </row>
-    <row r="80" spans="1:3" ht="126">
+    <row r="80" spans="1:3" ht="126" x14ac:dyDescent="0.25">
       <c r="A80" s="18" t="s">
         <v>131</v>
       </c>
@@ -2100,7 +2105,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="110.25">
+    <row r="81" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A81" s="18" t="s">
         <v>134</v>
       </c>
@@ -2111,7 +2116,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="15.75">
+    <row r="82" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A82" s="18" t="s">
         <v>61</v>
       </c>
@@ -2122,7 +2127,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="15.75">
+    <row r="83" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A83" s="18" t="s">
         <v>139</v>
       </c>
@@ -2133,7 +2138,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="15.75">
+    <row r="84" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A84" s="18" t="s">
         <v>140</v>
       </c>
@@ -2144,7 +2149,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="15.75">
+    <row r="85" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A85" s="18" t="s">
         <v>141</v>
       </c>
@@ -2155,7 +2160,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="15.75">
+    <row r="86" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A86" s="18" t="s">
         <v>67</v>
       </c>
@@ -2166,7 +2171,7 @@
         <v>64.95</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="15.75">
+    <row r="87" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A87" s="18" t="s">
         <v>68</v>
       </c>
@@ -2177,7 +2182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="15.75">
+    <row r="88" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A88" s="18" t="s">
         <v>64</v>
       </c>
@@ -2188,7 +2193,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="15.75">
+    <row r="89" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A89" s="18" t="s">
         <v>70</v>
       </c>
@@ -2199,7 +2204,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="90" spans="1:3" ht="126">
+    <row r="90" spans="1:3" ht="126" x14ac:dyDescent="0.25">
       <c r="A90" s="18" t="s">
         <v>73</v>
       </c>
@@ -2210,7 +2215,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="110.25">
+    <row r="91" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A91" s="18" t="s">
         <v>76</v>
       </c>
@@ -2221,21 +2226,21 @@
         <v>149</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="15.75">
+    <row r="92" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A92" s="18" t="s">
         <v>150</v>
       </c>
       <c r="B92" s="19"/>
       <c r="C92" s="19"/>
     </row>
-    <row r="93" spans="1:3" ht="15.75">
+    <row r="93" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A93" s="18" t="s">
         <v>151</v>
       </c>
       <c r="B93" s="19"/>
       <c r="C93" s="19"/>
     </row>
-    <row r="94" spans="1:3" ht="15.75">
+    <row r="94" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A94" s="18" t="s">
         <v>82</v>
       </c>
@@ -2246,21 +2251,21 @@
         <v>53</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="15.75">
+    <row r="95" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A95" s="18" t="s">
         <v>83</v>
       </c>
       <c r="B95" s="19"/>
       <c r="C95" s="19"/>
     </row>
-    <row r="96" spans="1:3" ht="15.75">
+    <row r="96" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A96" s="18" t="s">
         <v>84</v>
       </c>
       <c r="B96" s="19"/>
       <c r="C96" s="19"/>
     </row>
-    <row r="97" spans="1:5" ht="15.75">
+    <row r="97" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A97" s="18" t="s">
         <v>85</v>
       </c>
@@ -2269,7 +2274,7 @@
       </c>
       <c r="C97" s="19"/>
     </row>
-    <row r="98" spans="1:5" ht="15.75">
+    <row r="98" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A98" s="18" t="s">
         <v>86</v>
       </c>
@@ -2280,14 +2285,14 @@
         <v>57</v>
       </c>
     </row>
-    <row r="99" spans="1:5" ht="15.75">
+    <row r="99" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A99" s="18" t="s">
         <v>87</v>
       </c>
       <c r="B99" s="19"/>
       <c r="C99" s="19"/>
     </row>
-    <row r="100" spans="1:5" ht="15.75">
+    <row r="100" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A100" s="18" t="s">
         <v>92</v>
       </c>
@@ -2298,7 +2303,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="101" spans="1:5" ht="15.75">
+    <row r="101" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A101" s="18" t="s">
         <v>88</v>
       </c>
@@ -2309,7 +2314,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="102" spans="1:5" ht="15.75">
+    <row r="102" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A102" s="18" t="s">
         <v>90</v>
       </c>
@@ -2320,7 +2325,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="103" spans="1:5" ht="15.75">
+    <row r="103" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A103" s="18" t="s">
         <v>95</v>
       </c>
@@ -2331,7 +2336,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="104" spans="1:5" ht="15.75">
+    <row r="104" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A104" s="18" t="s">
         <v>98</v>
       </c>
@@ -2342,7 +2347,7 @@
         <v>64.95</v>
       </c>
     </row>
-    <row r="105" spans="1:5" ht="15.75">
+    <row r="105" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A105" s="18" t="s">
         <v>99</v>
       </c>
@@ -2353,7 +2358,7 @@
         <v>3.99</v>
       </c>
     </row>
-    <row r="106" spans="1:5" ht="15.75">
+    <row r="106" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A106" s="18" t="s">
         <v>100</v>
       </c>
@@ -2364,7 +2369,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="107" spans="1:5" ht="15.75">
+    <row r="107" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A107" s="18" t="s">
         <v>154</v>
       </c>
@@ -2375,7 +2380,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="108" spans="1:5" ht="15.75">
+    <row r="108" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A108" s="21" t="s">
         <v>155</v>
       </c>
@@ -2398,6 +2403,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C47EEB8100460B478BDC3BCCBE3D5051" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="829e995fc61fbfa25718206016b29da6">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9c6a6306-8d4e-455f-a7d8-70154a0dc4d2" xmlns:ns3="3e63a3be-2d53-41f2-914e-dd0efc332534" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3545440ad2b936a9d10385f8b267d779" ns2:_="" ns3:_="">
     <xsd:import namespace="9c6a6306-8d4e-455f-a7d8-70154a0dc4d2"/>
@@ -2562,15 +2576,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -2578,13 +2583,37 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A187F77C-E3B1-4B81-88C3-5890496FD075}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1889725-2C06-4DD3-B199-3839718C49C5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1889725-2C06-4DD3-B199-3839718C49C5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A187F77C-E3B1-4B81-88C3-5890496FD075}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="9c6a6306-8d4e-455f-a7d8-70154a0dc4d2"/>
+    <ds:schemaRef ds:uri="3e63a3be-2d53-41f2-914e-dd0efc332534"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{86F5D631-A150-4668-A8EB-947DB3A2A4E8}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{86F5D631-A150-4668-A8EB-947DB3A2A4E8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/gr_optimization/Input_Output/BuyflowValidation/Merchandising Input/MeaningfulBeauty/mb7deluxe20offb15.xlsx
+++ b/gr_optimization/Input_Output/BuyflowValidation/Merchandising Input/MeaningfulBeauty/mb7deluxe20offb15.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://guthyrenker.sharepoint.com/sites/ecommerce/Shared Documents/Merchandising Data Repo/MeaningfulBeauty/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="8_{F37BB686-1AC6-47FE-A74D-65D853D3D5CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{EC40F05B-2579-41DC-AD51-C8991C9C0449}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="8_{F37BB686-1AC6-47FE-A74D-65D853D3D5CE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{8E497219-0B7D-440D-8D01-0956D43851CA}"/>
   <bookViews>
     <workbookView xWindow="10350" yWindow="-16395" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1237,7 +1237,7 @@
   <dimension ref="A1:J108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2403,12 +2403,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2577,15 +2574,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1889725-2C06-4DD3-B199-3839718C49C5}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{86F5D631-A150-4668-A8EB-947DB3A2A4E8}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2610,10 +2611,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{86F5D631-A150-4668-A8EB-947DB3A2A4E8}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1889725-2C06-4DD3-B199-3839718C49C5}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>